--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3009445.371757608</v>
+        <v>3006953.422433769</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8663827.228330737</v>
+        <v>8663827.228330735</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>207.130113167393</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.90750774234414</v>
+        <v>413.9075077423441</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>325.1859052051723</v>
       </c>
       <c r="I2" t="n">
         <v>156.6862937548845</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>62.22601572607287</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>177.2262711387725</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.9882312337392</v>
       </c>
       <c r="U2" t="n">
         <v>251.2340345260132</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>140.3783227296</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>164.7204696298032</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -747,7 +747,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.5970034220424</v>
@@ -786,7 +786,7 @@
         <v>53.80849853870458</v>
       </c>
       <c r="S3" t="n">
-        <v>10.93507936649628</v>
+        <v>157.8170057799448</v>
       </c>
       <c r="T3" t="n">
         <v>197.1557544486215</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>88.91246021898444</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>94.90130660082539</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>49.11144063601742</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>213.1097037866937</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.284891972296</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>61.58865700332655</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>246.5509201501498</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -984,7 +984,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>119.9750303801821</v>
       </c>
       <c r="G6" t="n">
         <v>136.0669836643703</v>
@@ -993,7 +993,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>45.44580843958667</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>135.1427053245169</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>9.579478589972654</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>67.91716896751691</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>375.0031539720155</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>220.892030512648</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1297,19 +1297,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>3.963052384155189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>108.1854048069372</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.930370072262</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444161</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695541</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881288</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701351</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174132</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784692</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560538</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819375</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>39.52129633182962</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856568</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238282</v>
       </c>
       <c r="W13" t="n">
-        <v>214.4033048062049</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.584653352095</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710097</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E16" t="n">
-        <v>99.86023999965091</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>26.05480806223492</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="17">
@@ -1847,19 +1847,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417131</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="18">
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>104.8913819999774</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012176</v>
       </c>
       <c r="S19" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695538</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>20.43112068613063</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H22" t="n">
-        <v>26.13627195705825</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856562</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012176</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>42.71572132711141</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>107.4021082756238</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856562</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012176</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="26">
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>73.9322284908373</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>206.5509998577711</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>122.8704329402507</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>125.2851635392052</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3670,7 +3670,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>191.6604102493268</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>90.85912858529821</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710069</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3791,7 +3791,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3904,7 +3904,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>75.75905456204198</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,16 +3946,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>6.434538210426389</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4150,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>66.25628701154714</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>797.8422590309674</v>
+        <v>1366.905643290661</v>
       </c>
       <c r="C2" t="n">
-        <v>588.6199224982472</v>
+        <v>1366.905643290661</v>
       </c>
       <c r="D2" t="n">
-        <v>230.3542238914968</v>
+        <v>1366.905643290661</v>
       </c>
       <c r="E2" t="n">
-        <v>230.3542238914968</v>
+        <v>1366.905643290661</v>
       </c>
       <c r="F2" t="n">
-        <v>223.4087231422933</v>
+        <v>955.9197385010532</v>
       </c>
       <c r="G2" t="n">
-        <v>209.3607355237639</v>
+        <v>537.8313468421197</v>
       </c>
       <c r="H2" t="n">
         <v>209.3607355237639</v>
@@ -4352,28 +4352,28 @@
         <v>2554.587596648573</v>
       </c>
       <c r="R2" t="n">
-        <v>2554.587596648573</v>
+        <v>2491.733035309105</v>
       </c>
       <c r="S2" t="n">
-        <v>2554.587596648573</v>
+        <v>2312.716599815396</v>
       </c>
       <c r="T2" t="n">
-        <v>2554.587596648573</v>
+        <v>2093.536568266164</v>
       </c>
       <c r="U2" t="n">
-        <v>2300.815844602095</v>
+        <v>1839.764816219686</v>
       </c>
       <c r="V2" t="n">
-        <v>2300.815844602095</v>
+        <v>1508.701928876115</v>
       </c>
       <c r="W2" t="n">
-        <v>1948.047189331981</v>
+        <v>1366.905643290661</v>
       </c>
       <c r="X2" t="n">
-        <v>1574.581431070901</v>
+        <v>1366.905643290661</v>
       </c>
       <c r="Y2" t="n">
-        <v>1184.442099095089</v>
+        <v>1366.905643290661</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.652206113561</v>
+        <v>842.1176481404458</v>
       </c>
       <c r="C3" t="n">
-        <v>814.199176832434</v>
+        <v>667.6646188593188</v>
       </c>
       <c r="D3" t="n">
-        <v>665.2647671711827</v>
+        <v>518.7302091980675</v>
       </c>
       <c r="E3" t="n">
-        <v>506.0273121657272</v>
+        <v>359.4927541926121</v>
       </c>
       <c r="F3" t="n">
         <v>359.4927541926121</v>
@@ -4434,25 +4434,25 @@
         <v>2500.235577922609</v>
       </c>
       <c r="S3" t="n">
-        <v>2489.190043208976</v>
+        <v>2340.82446097317</v>
       </c>
       <c r="T3" t="n">
-        <v>2290.042816493197</v>
+        <v>2141.67723425739</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.86880706406</v>
+        <v>1913.503224828254</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.716698832317</v>
+        <v>1678.351116596511</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.479342104116</v>
+        <v>1424.113759868309</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.627841898583</v>
+        <v>1216.262259662777</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.867543133629</v>
+        <v>1008.501960897823</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2071.709033325761</v>
+        <v>140.9023178107335</v>
       </c>
       <c r="C4" t="n">
-        <v>2071.709033325761</v>
+        <v>51.09175193297146</v>
       </c>
       <c r="D4" t="n">
-        <v>2071.709033325761</v>
+        <v>51.09175193297146</v>
       </c>
       <c r="E4" t="n">
-        <v>2071.709033325761</v>
+        <v>51.09175193297146</v>
       </c>
       <c r="F4" t="n">
-        <v>2071.709033325761</v>
+        <v>51.09175193297146</v>
       </c>
       <c r="G4" t="n">
-        <v>2071.709033325761</v>
+        <v>51.09175193297146</v>
       </c>
       <c r="H4" t="n">
-        <v>2071.709033325761</v>
+        <v>51.09175193297146</v>
       </c>
       <c r="I4" t="n">
-        <v>1975.849127668362</v>
+        <v>51.09175193297146</v>
       </c>
       <c r="J4" t="n">
-        <v>1926.241611874405</v>
+        <v>51.09175193297146</v>
       </c>
       <c r="K4" t="n">
-        <v>1976.180317018619</v>
+        <v>101.0304570771859</v>
       </c>
       <c r="L4" t="n">
-        <v>2095.61110091176</v>
+        <v>220.4612409703266</v>
       </c>
       <c r="M4" t="n">
-        <v>2231.923240190042</v>
+        <v>356.773380248609</v>
       </c>
       <c r="N4" t="n">
-        <v>2370.428797890752</v>
+        <v>495.278937949319</v>
       </c>
       <c r="O4" t="n">
-        <v>2482.344802686996</v>
+        <v>607.1949427455629</v>
       </c>
       <c r="P4" t="n">
-        <v>2554.587596648573</v>
+        <v>679.4377367071392</v>
       </c>
       <c r="Q4" t="n">
-        <v>2520.491163367308</v>
+        <v>645.3413034258746</v>
       </c>
       <c r="R4" t="n">
-        <v>2520.491163367308</v>
+        <v>645.3413034258746</v>
       </c>
       <c r="S4" t="n">
-        <v>2520.491163367308</v>
+        <v>430.0789763686082</v>
       </c>
       <c r="T4" t="n">
-        <v>2520.491163367308</v>
+        <v>430.0789763686082</v>
       </c>
       <c r="U4" t="n">
-        <v>2520.491163367308</v>
+        <v>140.9023178107335</v>
       </c>
       <c r="V4" t="n">
-        <v>2520.491163367308</v>
+        <v>140.9023178107335</v>
       </c>
       <c r="W4" t="n">
-        <v>2520.491163367308</v>
+        <v>140.9023178107335</v>
       </c>
       <c r="X4" t="n">
-        <v>2292.501612469291</v>
+        <v>140.9023178107335</v>
       </c>
       <c r="Y4" t="n">
-        <v>2071.709033325761</v>
+        <v>140.9023178107335</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1151.76888291502</v>
+        <v>945.6834051789201</v>
       </c>
       <c r="C5" t="n">
-        <v>1151.76888291502</v>
+        <v>576.7208882385085</v>
       </c>
       <c r="D5" t="n">
-        <v>793.5031843082697</v>
+        <v>576.7208882385085</v>
       </c>
       <c r="E5" t="n">
-        <v>793.5031843082697</v>
+        <v>190.9326356402643</v>
       </c>
       <c r="F5" t="n">
-        <v>382.5172795186621</v>
+        <v>183.9871348910608</v>
       </c>
       <c r="G5" t="n">
-        <v>369.4699017954936</v>
+        <v>170.9397571678923</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800313</v>
+        <v>170.9397571678923</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>72.48103656138643</v>
+        <v>72.4810365613864</v>
       </c>
       <c r="K5" t="n">
-        <v>260.91370272424</v>
+        <v>280.4025554871572</v>
       </c>
       <c r="L5" t="n">
-        <v>400.2423585654932</v>
+        <v>833.2158137333564</v>
       </c>
       <c r="M5" t="n">
-        <v>1031.960169548805</v>
+        <v>1464.933624716668</v>
       </c>
       <c r="N5" t="n">
         <v>1659.267837608651</v>
       </c>
       <c r="O5" t="n">
-        <v>2206.429042375729</v>
+        <v>2206.429042375728</v>
       </c>
       <c r="P5" t="n">
         <v>2317.163367625255</v>
       </c>
       <c r="Q5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2406.124290896983</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400156</v>
+        <v>2191.324429164695</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.647625145307</v>
+        <v>1937.632725909846</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.584737801737</v>
+        <v>1937.632725909846</v>
       </c>
       <c r="W5" t="n">
-        <v>1915.373973151912</v>
+        <v>1584.864070639732</v>
       </c>
       <c r="X5" t="n">
-        <v>1541.908214890832</v>
+        <v>1335.822737154732</v>
       </c>
       <c r="Y5" t="n">
-        <v>1151.76888291502</v>
+        <v>945.6834051789201</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.6684709946088</v>
+        <v>893.4159553857316</v>
       </c>
       <c r="C6" t="n">
-        <v>790.2154417134818</v>
+        <v>718.9629261046047</v>
       </c>
       <c r="D6" t="n">
-        <v>641.2810320522306</v>
+        <v>570.0285164433534</v>
       </c>
       <c r="E6" t="n">
-        <v>482.0435770467751</v>
+        <v>410.7910614378979</v>
       </c>
       <c r="F6" t="n">
-        <v>335.5090190736601</v>
+        <v>289.6041620639766</v>
       </c>
       <c r="G6" t="n">
-        <v>198.067621432882</v>
+        <v>152.1627644231985</v>
       </c>
       <c r="H6" t="n">
-        <v>97.15164357768664</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>51.24678656800313</v>
+        <v>169.9060384248988</v>
       </c>
       <c r="K6" t="n">
-        <v>290.7044247194328</v>
+        <v>499.3344427307086</v>
       </c>
       <c r="L6" t="n">
-        <v>795.0659645855513</v>
+        <v>636.5640407464026</v>
       </c>
       <c r="M6" t="n">
-        <v>1429.24494836459</v>
+        <v>1270.743024525441</v>
       </c>
       <c r="N6" t="n">
-        <v>2063.423932143629</v>
+        <v>1566.198609964619</v>
       </c>
       <c r="O6" t="n">
-        <v>2222.93624481239</v>
+        <v>2115.634618717342</v>
       </c>
       <c r="P6" t="n">
-        <v>2331.625872339689</v>
+        <v>2539.602387198178</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2541.227428802343</v>
+        <v>2541.227428802342</v>
       </c>
       <c r="S6" t="n">
-        <v>2391.760639664978</v>
+        <v>2391.760639664977</v>
       </c>
       <c r="T6" t="n">
-        <v>2194.771343825066</v>
+        <v>2194.771343825065</v>
       </c>
       <c r="U6" t="n">
-        <v>1966.632556336232</v>
+        <v>1966.632556336231</v>
       </c>
       <c r="V6" t="n">
-        <v>1731.480448104489</v>
+        <v>1731.480448104488</v>
       </c>
       <c r="W6" t="n">
-        <v>1477.243091376287</v>
+        <v>1477.243091376286</v>
       </c>
       <c r="X6" t="n">
-        <v>1269.391591170755</v>
+        <v>1269.391591170754</v>
       </c>
       <c r="Y6" t="n">
-        <v>1132.883808014677</v>
+        <v>1061.6312924058</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>693.1610970130973</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C7" t="n">
-        <v>524.2249140851904</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D7" t="n">
-        <v>374.1082746728547</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E7" t="n">
-        <v>374.1082746728547</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>374.1082746728547</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>205.501429668238</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="K7" t="n">
         <v>152.2947161636129</v>
@@ -4747,28 +4747,28 @@
         <v>1051.181468027348</v>
       </c>
       <c r="R7" t="n">
-        <v>1051.181468027348</v>
+        <v>1041.505227027375</v>
       </c>
       <c r="S7" t="n">
-        <v>1051.181468027348</v>
+        <v>1041.505227027375</v>
       </c>
       <c r="T7" t="n">
-        <v>1051.181468027348</v>
+        <v>815.8760303397403</v>
       </c>
       <c r="U7" t="n">
-        <v>1051.181468027348</v>
+        <v>526.7238539174201</v>
       </c>
       <c r="V7" t="n">
-        <v>1051.181468027348</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="W7" t="n">
-        <v>761.7642979903871</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="X7" t="n">
-        <v>761.7642979903871</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y7" t="n">
-        <v>693.1610970130973</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>827.490450019752</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="C8" t="n">
-        <v>827.490450019752</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="D8" t="n">
-        <v>827.490450019752</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="E8" t="n">
-        <v>441.7021974215077</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="F8" t="n">
-        <v>62.9111328033102</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800313</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362819</v>
@@ -4808,46 +4808,46 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664336</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320765</v>
+        <v>1876.889363126071</v>
       </c>
       <c r="W8" t="n">
-        <v>1977.695380320765</v>
+        <v>1524.120707855957</v>
       </c>
       <c r="X8" t="n">
-        <v>1604.229622059685</v>
+        <v>1150.654949594877</v>
       </c>
       <c r="Y8" t="n">
-        <v>1214.090290083874</v>
+        <v>760.5156176190651</v>
       </c>
     </row>
     <row r="9">
@@ -4878,34 +4878,34 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310615</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625333</v>
+        <v>1057.327935297105</v>
       </c>
       <c r="M9" t="n">
-        <v>956.2844025217535</v>
+        <v>1420.589954256325</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118699</v>
+        <v>1807.87508285327</v>
       </c>
       <c r="O9" t="n">
-        <v>1675.639966294861</v>
+        <v>2139.945518029432</v>
       </c>
       <c r="P9" t="n">
-        <v>2238.100841080695</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2561.393271046732</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>686.1991671823603</v>
+        <v>476.1547555788524</v>
       </c>
       <c r="C10" t="n">
-        <v>517.2629842544534</v>
+        <v>307.2185726509455</v>
       </c>
       <c r="D10" t="n">
-        <v>367.1463448421176</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="E10" t="n">
-        <v>219.2332512597245</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800313</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800313</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312203</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4969,7 +4969,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4981,31 +4981,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1632.443036858179</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1632.443036858179</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1343.324699362017</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="V10" t="n">
-        <v>1088.64021115613</v>
+        <v>767.0814070827661</v>
       </c>
       <c r="W10" t="n">
-        <v>1088.64021115613</v>
+        <v>657.8032204090921</v>
       </c>
       <c r="X10" t="n">
-        <v>1088.64021115613</v>
+        <v>657.8032204090921</v>
       </c>
       <c r="Y10" t="n">
-        <v>867.8476320126</v>
+        <v>657.8032204090921</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551878</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168636</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436271</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591812</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J12" t="n">
-        <v>228.9331431646415</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K12" t="n">
-        <v>562.8579153358621</v>
+        <v>427.7414352191927</v>
       </c>
       <c r="L12" t="n">
-        <v>1058.183521551621</v>
+        <v>923.0670414349518</v>
       </c>
       <c r="M12" t="n">
-        <v>1655.562009178173</v>
+        <v>923.0670414349518</v>
       </c>
       <c r="N12" t="n">
-        <v>2283.159972732779</v>
+        <v>1550.665004989559</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>2102.574735228846</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400701</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400701</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277342</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>215.8238677453409</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>215.8238677453409</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>215.8238677453409</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703099</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551878</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192609</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5291,37 +5291,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852892</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591812</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>139.234765840793</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>139.234765840793</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>634.560372056552</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2530.951795518647</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1051.62299597371</v>
+        <v>580.8993044876682</v>
       </c>
       <c r="C16" t="n">
-        <v>882.6868130458031</v>
+        <v>411.9631215597612</v>
       </c>
       <c r="D16" t="n">
-        <v>732.5701736334673</v>
+        <v>261.8464821474254</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>261.8464821474254</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
@@ -5461,25 +5461,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235164</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258105</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.506784258105</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.822296052218</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.405126015257</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.41557511724</v>
+        <v>983.3403484614383</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.62299597371</v>
+        <v>762.5477693179081</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,40 +5525,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>417.9651836029403</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>913.2907898186992</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>913.2907898186992</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>407.9027098310025</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310025</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330921</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5741,58 +5741,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>139.234765840793</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>139.234765840793</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969308</v>
+        <v>634.560372056552</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="C22" t="n">
-        <v>814.4194208819168</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="D22" t="n">
-        <v>664.3027814695811</v>
+        <v>363.7369613277348</v>
       </c>
       <c r="E22" t="n">
-        <v>516.389687887188</v>
+        <v>363.7369613277348</v>
       </c>
       <c r="F22" t="n">
-        <v>369.4997403892776</v>
+        <v>343.0994656851786</v>
       </c>
       <c r="G22" t="n">
-        <v>202.3036411041575</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y22" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,64 +5975,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>251.5626541092259</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>746.8882603249848</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N24" t="n">
-        <v>1965.532750177311</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="C25" t="n">
-        <v>814.4194208819168</v>
+        <v>470.7064074803621</v>
       </c>
       <c r="D25" t="n">
-        <v>664.3027814695811</v>
+        <v>470.7064074803621</v>
       </c>
       <c r="E25" t="n">
-        <v>516.389687887188</v>
+        <v>322.7933138979689</v>
       </c>
       <c r="F25" t="n">
-        <v>369.4997403892776</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="G25" t="n">
-        <v>202.3036411041575</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y25" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803937</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>842.6091804069456</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1470.207143961552</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>2022.116874200839</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,22 +6540,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>228.9331431646415</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>562.8579153358621</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>1058.183521551621</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1655.562009178173</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2283.159972732779</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6698,10 +6698,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6740,7 +6740,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683105</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>322.7933138979686</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,10 +6932,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6965,13 +6965,13 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852888</v>
@@ -7017,22 +7017,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>448.1846595309963</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>943.510265746755</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1540.888753373307</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>620.8230468926974</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>470.7064074803617</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979686</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2253.366709591041</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7178,16 +7178,16 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L39" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>789.7592298206043</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C40" t="n">
-        <v>620.8230468926974</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>470.7064074803617</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>322.7933138979686</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
         <v>175.9033664000583</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>971.4076946508441</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7403,55 +7403,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>221.3431781811722</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>716.6687843969308</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.3929232910542</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>782.4567403631473</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>632.3401009508116</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>484.4270073684185</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>337.5370598705081</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>170.340960585388</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V43" t="n">
-        <v>1871.240688199802</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W43" t="n">
-        <v>1581.823518162841</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>1353.833967264824</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>1133.041388121294</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>680.448174698413</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2312.991837396757</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8216,16 +8216,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>106.9389005942033</v>
+        <v>126.6246104557358</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>173.5856752404774</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>459.2743913378121</v>
+        <v>459.2743913378118</v>
       </c>
       <c r="N6" t="n">
-        <v>439.9214566933071</v>
+        <v>97.77660988536664</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>35.9162744517248</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>21.89339468985722</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9884,13 +9884,13 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10124,13 +10124,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>100.7734165143944</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>46.57372264691826</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>119.3662399606964</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856562</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012176</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>43.72409101823504</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856562</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>124.9899273368007</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>114.1584408891656</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>124.5310997715165</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H25" t="n">
-        <v>32.89260457060008</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>66.36248435538658</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,16 +24841,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>10.85445046951719</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>25.74504007796166</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>55.74112246243936</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>25.74504007796142</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
     </row>
     <row r="41">
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>64.53565828418191</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25834,16 +25834,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>210.9709121168619</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26071,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>114.7699989900974</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>733141.3233361411</v>
+        <v>733141.323336141</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>733141.3233361411</v>
+        <v>733141.323336141</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>733141.3233361411</v>
+        <v>733141.3233361408</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>733141.3233361411</v>
+        <v>733141.3233361412</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>733141.3233361412</v>
+        <v>733141.3233361411</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>733141.3233361411</v>
+        <v>733141.323336141</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>733141.3233361412</v>
+        <v>733141.323336141</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>733141.3233361412</v>
+        <v>733141.323336141</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846405</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365051</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="J2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="L2" t="n">
         <v>686074.6097365054</v>
       </c>
       <c r="M2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="N2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="O2" t="n">
         <v>686074.6097365055</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365057</v>
       </c>
       <c r="P2" t="n">
         <v>686074.6097365057</v>
@@ -26366,13 +26366,13 @@
         <v>548460.0746161955</v>
       </c>
       <c r="C3" t="n">
-        <v>225009.9816299281</v>
+        <v>225009.981629928</v>
       </c>
       <c r="D3" t="n">
-        <v>291685.0095230268</v>
+        <v>291685.0095230266</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245456</v>
+        <v>507485.4416245463</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167098.1292843799</v>
+        <v>167098.1292843793</v>
       </c>
       <c r="K3" t="n">
-        <v>498.7619243603868</v>
+        <v>498.7619243603248</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289269</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719416</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719488</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719685</v>
+        <v>7507.368461719494</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719547</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719729</v>
+        <v>7507.368461719534</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719674</v>
+        <v>7507.368461719677</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719672</v>
+        <v>7507.36846171967</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719678</v>
+        <v>7507.36846171968</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171968</v>
       </c>
       <c r="N4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719663</v>
+        <v>7507.368461719689</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719678</v>
+        <v>7507.368461719667</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>80023.31371946019</v>
       </c>
       <c r="C5" t="n">
-        <v>85512.93677905219</v>
+        <v>85512.93677905218</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-178050.2458708213</v>
+        <v>-178050.2458708215</v>
       </c>
       <c r="C6" t="n">
-        <v>189049.951315508</v>
+        <v>189049.9513155082</v>
       </c>
       <c r="D6" t="n">
-        <v>180148.8588750247</v>
+        <v>180148.858875025</v>
       </c>
       <c r="E6" t="n">
-        <v>69959.26982633311</v>
+        <v>69924.53190089698</v>
       </c>
       <c r="F6" t="n">
-        <v>577444.7114508783</v>
+        <v>577409.9735254431</v>
       </c>
       <c r="G6" t="n">
-        <v>577444.7114508788</v>
+        <v>577409.9735254433</v>
       </c>
       <c r="H6" t="n">
-        <v>577444.711450879</v>
+        <v>577409.9735254432</v>
       </c>
       <c r="I6" t="n">
-        <v>577444.7114508788</v>
+        <v>577409.9735254433</v>
       </c>
       <c r="J6" t="n">
-        <v>410346.582166499</v>
+        <v>410311.8442410639</v>
       </c>
       <c r="K6" t="n">
-        <v>576945.9495265184</v>
+        <v>576911.2116010827</v>
       </c>
       <c r="L6" t="n">
-        <v>577444.7114508786</v>
+        <v>577409.973525443</v>
       </c>
       <c r="M6" t="n">
-        <v>444837.4177219521</v>
+        <v>444802.679796516</v>
       </c>
       <c r="N6" t="n">
-        <v>577444.711450879</v>
+        <v>577409.9735254432</v>
       </c>
       <c r="O6" t="n">
-        <v>577444.7114508789</v>
+        <v>577409.9735254431</v>
       </c>
       <c r="P6" t="n">
-        <v>577444.7114508789</v>
+        <v>577409.9735254432</v>
       </c>
     </row>
   </sheetData>
@@ -26722,7 +26722,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26741,7 +26741,7 @@
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,25 +26790,25 @@
         <v>638.6468991621432</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>246.412694356327</v>
       </c>
       <c r="D3" t="n">
-        <v>340.5887917794744</v>
+        <v>340.5887917794743</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241343</v>
+        <v>433.9106082241351</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-1.349480772343243e-14</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>638.6468991621432</v>
       </c>
       <c r="C4" t="n">
-        <v>1.93793293789588</v>
+        <v>1.937932937895653</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996102</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621434</v>
+        <v>638.6468991621427</v>
       </c>
       <c r="K4" t="n">
-        <v>1.93793293789588</v>
+        <v>1.937932937895539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996102</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27258,13 +27258,13 @@
         <v>638.6468991621432</v>
       </c>
       <c r="K4" t="n">
-        <v>1.93793293789588</v>
+        <v>1.937932937895653</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996102</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>158.1427786036146</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>325.1859052051723</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>62.22601572607287</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>177.2262711387725</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.9882312337392</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>208.862645987813</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1.812714020064163</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>146.8819264134485</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>78.3343608796434</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27555,10 +27555,10 @@
         <v>156.6627788836668</v>
       </c>
       <c r="I4" t="n">
-        <v>41.72809050696421</v>
+        <v>136.6293971077896</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>49.11144063601742</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,13 +27585,13 @@
         <v>149.1528076724863</v>
       </c>
       <c r="S4" t="n">
-        <v>213.1097037866937</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.2714943330124</v>
       </c>
       <c r="U4" t="n">
-        <v>286.284891972296</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>287.6523117140865</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>123.1801805283193</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27704,7 +27704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>25.09418201320176</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>70.53999045278744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,10 +27786,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
         <v>123.266557879417</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>119.5937030778187</v>
       </c>
       <c r="S7" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.6674843845779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>31.87289176969591</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>106.8602279574869</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>190.6994079775823</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>178.3375935296538</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28147,16 +28147,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-1.550056925811874e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-1.576277805599665e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-1.576277805599665e-13</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-1.576277805599665e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-1.576277805599665e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-1.576277805599665e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-1.576277805599665e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-1.576277805599665e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-1.576277805599665e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-1.576277805599665e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-1.576277805599665e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-1.576277805599665e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-1.576277805599665e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-1.576277805599665e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-1.576277805599665e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-1.576277805599665e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>-1.576277805599665e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-1.576277805599665e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-1.576277805599665e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-1.576277805599665e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-1.576277805599665e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-1.576277805599665e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-1.576277805599665e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-1.576277805599665e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-1.576277805599665e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-1.576277805599665e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-1.576277805599665e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-1.576277805599665e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-1.25447545072128e-13</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-2.125551841815869e-12</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-1.25447545072128e-13</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-1.25447545072128e-13</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-1.25447545072128e-13</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.25447545072128e-13</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-1.25447545072128e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28381,19 +28381,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>-1.25447545072128e-13</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-1.25447545072128e-13</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-1.25447545072128e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-1.25447545072128e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-1.25447545072128e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-1.25447545072128e-13</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-1.25447545072128e-13</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-1.25447545072128e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-1.25447545072128e-13</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-1.25447545072128e-13</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-1.25447545072128e-13</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-1.25447545072128e-13</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-1.25447545072128e-13</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-1.25447545072128e-13</v>
       </c>
       <c r="L16" t="n">
-        <v>-8.483880264975597e-13</v>
+        <v>-1.25447545072128e-13</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-1.25447545072128e-13</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>-1.25447545072128e-13</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>-1.25447545072128e-13</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-1.25447545072128e-13</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>-1.25447545072128e-13</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-1.25447545072128e-13</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-1.25447545072128e-13</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-1.25447545072128e-13</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>-1.25447545072128e-13</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>-1.25447545072128e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>-1.25447545072128e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>-1.25447545072128e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-1.25447545072128e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28788,7 +28788,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>-9.34480917197543e-14</v>
       </c>
     </row>
     <row r="20">
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>6.429578708524912e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -31519,28 +31519,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31555,7 +31555,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,7 +31592,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
@@ -31604,10 +31604,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040589</v>
@@ -31616,7 +31616,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378626</v>
@@ -31628,10 +31628,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31677,19 +31677,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>261.5336801130329</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>552.0015769888914</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>170.9292585737919</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>168.0123247135882</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>312.3207226334968</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>172.7144981745668</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>146.0225991093077</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>271.1474903386692</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,31 +33020,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>746.4857620875799</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>248.3870916262918</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33260,25 +33260,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>261.5336801130329</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33494,25 +33494,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M33" t="n">
-        <v>301.1823051500301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33737,25 +33737,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>344.6306853939244</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L39" t="n">
-        <v>428.6149474293401</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>264.8708611242914</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>624.2063432190395</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,16 +34445,16 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34466,10 +34466,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34936,16 +34936,16 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>190.3360264271248</v>
+        <v>210.0217362886574</v>
       </c>
       <c r="L5" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O5" t="n">
         <v>552.6880856233105</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K6" t="n">
-        <v>241.8764021731613</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000391</v>
+        <v>298.4399852920986</v>
       </c>
       <c r="O6" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,28 +35173,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434849</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378503</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820406</v>
@@ -35267,13 +35267,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>285.5958035752572</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0.9556134883073677</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35337,7 +35337,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>134.6960534463662</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>418.0271695745611</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295332</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
         <v>426.2724270010451</v>
@@ -35583,10 +35583,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.587454168382</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>44.09163190712518</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>22.33282074962425</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295332</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
         <v>426.2724270010451</v>
@@ -35820,10 +35820,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>174.4792836591378</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295332</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36057,10 +36057,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>45.87687150790013</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>477.9853321427316</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295332</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36294,10 +36294,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>8.181160134948685</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>128.5512458942248</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295332</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36531,10 +36531,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36604,13 +36604,13 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>615.1440500042467</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>108.4053175402703</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36844,13 +36844,13 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36908,25 +36908,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>134.6960534463662</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M33" t="n">
-        <v>159.0482712280117</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37385,25 +37385,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>206.7892464195654</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L39" t="n">
-        <v>290.0605676494659</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>127.0294221499325</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38114,10 +38114,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
